--- a/GB Accounts 2022-23/GB Accounts Company 2023-12-31 (Dec23) Excel 2007/expensesform.xlsx
+++ b/GB Accounts 2022-23/GB Accounts Company 2023-12-31 (Dec23) Excel 2007/expensesform.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Downloads\GB Accounts Company 2023-03-31 (Mar23) Excel 2007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Downloads\Wages Interface and Linking to be complete on all\GB Accounts Company 2023-12-31 (Dec23) Excel 2007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0E63C0-8268-4827-89AF-4F3937D69B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B9F1C-80BA-4B97-A3D0-42DC5ABF6AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,6 +499,38 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,38 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -909,63 +909,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <v>20</v>
       </c>
@@ -974,14 +974,14 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
-        <v>44652</v>
+        <v>44927</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="51">
-        <v>44681</v>
+        <v>44957</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -1752,14 +1752,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -1778,53 +1778,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -1840,10 +1840,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -1867,19 +1867,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44681</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>44957</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -1940,10 +1940,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -1955,26 +1955,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -1991,11 +1991,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E40:F40"/>
@@ -2010,14 +2013,11 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -2057,66 +2057,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 09'!B5:D5&gt;0,'Month 09'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 09'!H5</f>
         <v>20</v>
@@ -2126,18 +2126,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 09'!B6:D6&gt;0,'Month 09'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 09'!G6),MONTH('Month 09'!G6)+1,1)</f>
-        <v>44927</v>
+        <v>45200</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44957</v>
+        <v>45230</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -2914,14 +2914,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -2940,53 +2940,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -3002,10 +3002,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -3029,19 +3029,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44957</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45230</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -3102,10 +3102,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -3117,26 +3117,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -3153,16 +3153,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -3174,12 +3170,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -3216,66 +3216,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 10'!B5:D5&gt;0,'Month 10'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 10'!H5</f>
         <v>20</v>
@@ -3285,18 +3285,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 10'!B6:D6&gt;0,'Month 10'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 10'!G6),MONTH('Month 10'!G6)+1,1)</f>
-        <v>44958</v>
+        <v>45231</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44985</v>
+        <v>45260</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -4073,14 +4073,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -4099,53 +4099,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -4161,10 +4161,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -4188,19 +4188,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44985</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45260</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -4261,10 +4261,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -4276,26 +4276,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -4312,16 +4312,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -4333,12 +4329,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4375,66 +4375,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 11'!B5:D5&gt;0,'Month 11'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 11'!H5</f>
         <v>20</v>
@@ -4444,18 +4444,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 11'!B6:D6&gt;0,'Month 11'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 11'!G6),MONTH('Month 11'!G6)+1,1)</f>
-        <v>44986</v>
+        <v>45261</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45016</v>
+        <v>45291</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -5232,14 +5232,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -5258,53 +5258,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -5320,10 +5320,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -5347,19 +5347,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45016</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45291</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -5404,10 +5404,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -5420,10 +5420,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -5435,26 +5435,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -5471,16 +5471,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -5492,12 +5488,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -5537,66 +5537,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 01'!B5:D5&gt;0,'Month 01'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 01'!H5</f>
         <v>20</v>
@@ -5606,18 +5606,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 01'!B6:D6&gt;0,'Month 01'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 01'!G6),MONTH('Month 01'!G6)+1,1)</f>
-        <v>44682</v>
+        <v>44958</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44712</v>
+        <v>44985</v>
       </c>
       <c r="H7" s="51"/>
       <c r="Q7" s="38"/>
@@ -6395,14 +6395,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -6421,53 +6421,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -6483,10 +6483,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -6510,19 +6510,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44712</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>44985</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -6552,10 +6552,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -6583,10 +6583,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -6598,26 +6598,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -6634,16 +6634,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -6655,12 +6651,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6699,66 +6699,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 02'!B5:D5&gt;0,'Month 02'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 02'!H5</f>
         <v>20</v>
@@ -6768,18 +6768,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 02'!B6:D6&gt;0,'Month 02'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 02'!G6),MONTH('Month 02'!G6)+1,DAY('Month 02'!G6))</f>
-        <v>44713</v>
+        <v>44986</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44742</v>
+        <v>45016</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -7556,14 +7556,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -7582,53 +7582,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -7644,10 +7644,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -7671,19 +7671,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44742</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45016</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -7713,10 +7713,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -7728,10 +7728,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -7744,10 +7744,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -7759,26 +7759,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -7795,16 +7795,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -7816,12 +7812,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7859,66 +7859,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 03'!B5:D5&gt;0,'Month 03'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 03'!H5</f>
         <v>20</v>
@@ -7928,18 +7928,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 03'!B6:D6&gt;0,'Month 03'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 03'!G6),MONTH('Month 03'!G6)+1,1)</f>
-        <v>44743</v>
+        <v>45017</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44773</v>
+        <v>45046</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -8716,14 +8716,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -8742,53 +8742,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -8804,10 +8804,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -8831,19 +8831,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44773</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45046</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -8873,10 +8873,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -8888,10 +8888,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -8904,10 +8904,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -8919,26 +8919,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -8955,16 +8955,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -8976,12 +8972,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -9020,66 +9020,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 04'!B5:D5&gt;0,'Month 04'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 04'!H5</f>
         <v>20</v>
@@ -9089,18 +9089,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 04'!B6:D6&gt;0,'Month 04'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 04'!G6),MONTH('Month 04'!G6)+1,1)</f>
-        <v>44774</v>
+        <v>45047</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44804</v>
+        <v>45077</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -9877,14 +9877,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -9903,53 +9903,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -9965,10 +9965,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9984,7 +9984,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -9992,19 +9992,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44804</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45077</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -10034,10 +10034,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -10049,10 +10049,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -10065,10 +10065,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -10080,26 +10080,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -10116,16 +10116,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -10137,12 +10133,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10180,66 +10180,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 05'!B5:D5&gt;0,'Month 05'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 05'!H5</f>
         <v>20</v>
@@ -10249,18 +10249,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 05'!B6:D6&gt;0,'Month 05'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 05'!G6),MONTH('Month 05'!G6)+1,1)</f>
-        <v>44805</v>
+        <v>45078</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44834</v>
+        <v>45107</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -11037,14 +11037,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -11063,53 +11063,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -11125,10 +11125,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -11152,19 +11152,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44834</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45107</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -11209,10 +11209,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -11225,10 +11225,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -11240,26 +11240,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -11276,16 +11276,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -11297,12 +11293,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -11340,66 +11340,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 06'!B5:D5&gt;0,'Month 06'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 06'!H5</f>
         <v>20</v>
@@ -11409,18 +11409,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 06'!B6:D6&gt;0,'Month 06'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 06'!G6),MONTH('Month 06'!G6)+1,1)</f>
-        <v>44835</v>
+        <v>45108</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44865</v>
+        <v>45138</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -12197,14 +12197,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -12223,53 +12223,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -12285,10 +12285,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -12312,19 +12312,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44865</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45138</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12354,10 +12354,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -12369,10 +12369,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -12385,10 +12385,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -12400,26 +12400,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -12436,16 +12436,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -12457,12 +12453,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -12500,66 +12500,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 07'!B5:D5&gt;0,'Month 07'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 07'!H5</f>
         <v>20</v>
@@ -12569,18 +12569,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 07'!B6:D6&gt;0,'Month 07'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 07'!G6),MONTH('Month 07'!G6)+1,1)</f>
-        <v>44866</v>
+        <v>45139</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44895</v>
+        <v>45169</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -13357,14 +13357,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -13383,53 +13383,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -13445,10 +13445,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13464,7 +13464,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -13472,19 +13472,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44895</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45169</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -13514,10 +13514,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -13529,10 +13529,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -13545,10 +13545,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -13560,26 +13560,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -13596,16 +13596,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -13617,12 +13613,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -13660,66 +13660,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 08'!B5:D5&gt;0,'Month 08'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 08'!H5</f>
         <v>20</v>
@@ -13729,18 +13729,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 08'!B6:D6&gt;0,'Month 08'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 08'!G6),MONTH('Month 08'!G6)+1,1)</f>
-        <v>44896</v>
+        <v>45170</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -13761,7 +13761,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44926</v>
+        <v>45199</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -14517,14 +14517,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -14543,53 +14543,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
@@ -14605,10 +14605,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -14632,19 +14632,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44926</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45199</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -14674,10 +14674,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -14689,10 +14689,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -14705,10 +14705,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -14720,26 +14720,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -14756,16 +14756,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -14777,12 +14773,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
